--- a/src/test/resources/removeSelection/removeSelection.xlsx
+++ b/src/test/resources/removeSelection/removeSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\removeSelection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621077F8-A199-4275-ABF0-4B71AE6E93DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94776185-89A2-4D37-8F36-250A82D1324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -88,17 +88,197 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>{"value":"download/2.json"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF871094"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF871094"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"https://task.hugang.io/login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF871094"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"skip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF871094"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"https://task.hugang.io/issues/1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>xpath</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>=//div[@class='contextual'][.//a[@accesskey='e']]//a[contains(text(),'編集')]</t>
     </r>
@@ -110,45 +290,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"target"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"xpath=//*[@id='issue_custom_field_values_31']"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>}</t>
     </r>
@@ -160,45 +336,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"skip"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF0033B3"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>false</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>}</t>
     </r>
@@ -210,45 +382,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"value"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"${company1}"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>}</t>
     </r>
@@ -260,377 +428,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"value"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>"${company2}"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"target"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"target"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"https://task.hugang.io/issues/1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"target"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"https://task.hugang.io/login"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"skip"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0033B3"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"C:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xihu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desktop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>}</t>
     </r>
@@ -665,63 +497,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF080808"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF871094"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF067D17"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF871094"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0033B3"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0037A6"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF0033B3"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -733,11 +565,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -750,33 +702,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,156 +1070,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28" style="4" customWidth="1"/>
-    <col min="11" max="11" width="27.375" style="4" customWidth="1"/>
-    <col min="12" max="14" width="27.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.25" style="4"/>
+    <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:15" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="12">
         <v>2000</v>
       </c>
     </row>
